--- a/config/master_test_template.xlsx
+++ b/config/master_test_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/april_automation_framework/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B86F00-8F4B-6A41-9CB1-8358B26E68C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F928E40-D571-5844-97BE-D19E3C972364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="32">
   <si>
     <t>exclude_columns</t>
   </si>
@@ -87,13 +87,46 @@
   </si>
   <si>
     <t>target_schema_path</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>source_123.csv</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>NOT APPL</t>
+  </si>
+  <si>
+    <t>target.json</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>col1</t>
+  </si>
+  <si>
+    <t>count_check</t>
+  </si>
+  <si>
+    <t>data_compare</t>
+  </si>
+  <si>
+    <t>source_124.csv</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +310,13 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,6 +437,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -677,10 +720,10 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -772,80 +815,264 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="15"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="1"/>
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="15"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="1"/>
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="15"/>
@@ -863,8 +1090,12 @@
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="1"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1"/>
@@ -1360,13 +1591,13 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q32" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q32" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I6:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3 D5:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">

--- a/config/master_test_template.xlsx
+++ b/config/master_test_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/april_automation_framework/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F928E40-D571-5844-97BE-D19E3C972364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C8048C-7DC2-4040-B5F2-0A362FB7F757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>exclude_columns</t>
   </si>
@@ -92,18 +92,12 @@
     <t>duplicate</t>
   </si>
   <si>
-    <t>source_123.csv</t>
-  </si>
-  <si>
     <t>csv</t>
   </si>
   <si>
     <t>NOT APPL</t>
   </si>
   <si>
-    <t>target.json</t>
-  </si>
-  <si>
     <t>json</t>
   </si>
   <si>
@@ -113,13 +107,49 @@
     <t>count_check</t>
   </si>
   <si>
-    <t>data_compare</t>
-  </si>
-  <si>
-    <t>source_124.csv</t>
-  </si>
-  <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Contact_info.csv</t>
+  </si>
+  <si>
+    <t>contact_info_schema.json</t>
+  </si>
+  <si>
+    <t>Contact_info_t.csv</t>
+  </si>
+  <si>
+    <t>test_schema.json</t>
+  </si>
+  <si>
+    <t>Contact_info_24.csv</t>
+  </si>
+  <si>
+    <t>Contact_info_t24.csv</t>
+  </si>
+  <si>
+    <t>userdata1.parquet</t>
+  </si>
+  <si>
+    <t>parquet</t>
+  </si>
+  <si>
+    <t>Complex2.json</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>contact_info_raw</t>
+  </si>
+  <si>
+    <t>postgres_db</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>test.sql</t>
   </si>
 </sst>
 </file>
@@ -269,13 +299,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -317,6 +340,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFED94FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,20 +374,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,19 +432,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -439,8 +465,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,10 +749,10 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -762,13 +791,13 @@
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -777,25 +806,25 @@
       <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -815,287 +844,287 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="23" t="s">
+      <c r="J4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="N4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="23" t="s">
+      <c r="O4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="P4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="21">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="33" t="s">
+      <c r="N5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>24</v>
+      <c r="R5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="23"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1"/>
@@ -1103,501 +1132,501 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="23"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="30"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="29"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="19"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="19"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="19"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="19"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="13"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="19"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="13"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="29"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="28"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="13"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="13"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="13"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="25"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="24"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="21"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="13"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="16"/>
+      <c r="R22" s="15"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="13"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="17"/>
+      <c r="R23" s="16"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="14"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="13"/>
       <c r="Q24" s="1"/>
-      <c r="S24" s="18"/>
+      <c r="S24" s="17"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="B25" s="27"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="28"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="27"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="24"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="32"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="23"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="14"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="13"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="32"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="23"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="21"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="14"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="13"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="32"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="23"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="21"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="14"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="13"/>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="32"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="23"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="22"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="21"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="14"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="13"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="32"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="23"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="21"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="14"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="13"/>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="32"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="23"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="21"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="13"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="32"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="23"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="21"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="14"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="13"/>
       <c r="Q32" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q32" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I6:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3 D5:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">

--- a/config/master_test_template.xlsx
+++ b/config/master_test_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/april_automation_framework/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C8048C-7DC2-4040-B5F2-0A362FB7F757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105AABB9-1E25-A043-A189-126079731241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t>exclude_columns</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>test.sql</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -749,10 +752,10 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -815,7 +818,7 @@
       <c r="L1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="31" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="7" t="s">
@@ -848,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>28</v>
@@ -913,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
@@ -1076,7 +1079,7 @@
         <v>23</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>25</v>
@@ -1103,28 +1106,70 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
+    <row r="6" spans="1:21" ht="21">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1"/>

--- a/config/master_test_template.xlsx
+++ b/config/master_test_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/april_automation_framework/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105AABB9-1E25-A043-A189-126079731241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB42BF35-BD5F-2940-9F29-F1C0204DB64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$U$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$U$22</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
   <si>
     <t>exclude_columns</t>
   </si>
@@ -98,9 +98,6 @@
     <t>NOT APPL</t>
   </si>
   <si>
-    <t>json</t>
-  </si>
-  <si>
     <t>col1</t>
   </si>
   <si>
@@ -110,33 +107,12 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Contact_info.csv</t>
-  </si>
-  <si>
-    <t>contact_info_schema.json</t>
-  </si>
-  <si>
     <t>Contact_info_t.csv</t>
   </si>
   <si>
     <t>test_schema.json</t>
   </si>
   <si>
-    <t>Contact_info_24.csv</t>
-  </si>
-  <si>
-    <t>Contact_info_t24.csv</t>
-  </si>
-  <si>
-    <t>userdata1.parquet</t>
-  </si>
-  <si>
-    <t>parquet</t>
-  </si>
-  <si>
-    <t>Complex2.json</t>
-  </si>
-  <si>
     <t>table</t>
   </si>
   <si>
@@ -146,39 +122,28 @@
     <t>postgres_db</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>test.sql</t>
   </si>
   <si>
-    <t>id</t>
+    <t>records_present_only_in_source</t>
+  </si>
+  <si>
+    <t>records_present_only_target</t>
+  </si>
+  <si>
+    <t>identifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,6 +312,12 @@
     <font>
       <sz val="15"/>
       <color rgb="FFED94FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF54B33E"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -373,92 +344,86 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,10 +433,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,19 +717,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="2" customWidth="1"/>
     <col min="3" max="3" width="77.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -794,13 +762,13 @@
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -818,7 +786,7 @@
       <c r="L1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="7" t="s">
@@ -846,343 +814,297 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="14">
+    <row r="2" spans="1:21" ht="21">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="32" t="s">
+      <c r="J2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="21">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="32" t="s">
+      <c r="J3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="21">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="F4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="R4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="21">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="21">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>30</v>
+      <c r="H5" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="21">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="31" t="s">
-        <v>23</v>
-      </c>
+      <c r="J5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="17"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="1"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="3"/>
       <c r="M7" s="8"/>
       <c r="N7" s="9"/>
@@ -1191,36 +1113,36 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="3"/>
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="29"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="20"/>
       <c r="L9" s="3"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
@@ -1229,17 +1151,17 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="3"/>
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
@@ -1248,17 +1170,17 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="3"/>
       <c r="M11" s="8"/>
       <c r="N11" s="9"/>
@@ -1271,18 +1193,18 @@
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="3"/>
       <c r="M12" s="8"/>
       <c r="N12" s="9"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:21">
@@ -1290,13 +1212,13 @@
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="3"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1309,51 +1231,51 @@
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="3"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
+      <c r="P14" s="27"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="3"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="18"/>
+      <c r="P15" s="13"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="3"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1362,185 +1284,185 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="3"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="28"/>
+      <c r="P17" s="13"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="3"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="13"/>
+      <c r="P18" s="23"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="3"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
       <c r="O19" s="12"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="1"/>
+      <c r="R19" s="14"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="3"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
       <c r="O20" s="12"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="1"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="3"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="24"/>
+      <c r="P21" s="13"/>
       <c r="Q21" s="1"/>
+      <c r="S21" s="16"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="19"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="21"/>
+      <c r="B22" s="25"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="26"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="13"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="23"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="15"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="19"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="3"/>
       <c r="M23" s="8"/>
       <c r="N23" s="9"/>
       <c r="O23" s="12"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="16"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="19"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="3"/>
       <c r="M24" s="8"/>
       <c r="N24" s="9"/>
       <c r="O24" s="12"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="1"/>
-      <c r="S24" s="17"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="B25" s="26"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="27"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="21"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="24"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="13"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="31"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="22"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="3"/>
       <c r="M26" s="8"/>
       <c r="N26" s="9"/>
@@ -1549,17 +1471,17 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="31"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="22"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="21"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="3"/>
       <c r="M27" s="8"/>
       <c r="N27" s="9"/>
@@ -1568,17 +1490,17 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="31"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="22"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="21"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="3"/>
       <c r="M28" s="8"/>
       <c r="N28" s="9"/>
@@ -1587,17 +1509,17 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="31"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="22"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="21"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="20"/>
       <c r="L29" s="3"/>
       <c r="M29" s="8"/>
       <c r="N29" s="9"/>
@@ -1605,67 +1527,10 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="31"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="31"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="31"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q32" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q29" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
